--- a/data/trans_bre/P26_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P26_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>289,91%</t>
+          <t>-19,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>110,94%</t>
+          <t>440,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>116,48%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-49,29%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-32,32%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 7,38</t>
+          <t>-3,58; 2,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,77</t>
+          <t>2,57; 10,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 18,33</t>
+          <t>-0,14; 10,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 27,41</t>
+          <t>-11,52; 0,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-66,28; 288,46</t>
+          <t>-31,73; 7,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,25; 1528,3</t>
+          <t>-99,85; 327,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,52; 321,66</t>
+          <t>25,37; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 236,15</t>
+          <t>-10,81; 409,97</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-80,04; 5,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-87,55; 298,17</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>59,85%</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>203,54%</t>
+          <t>269,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56,35%</t>
+          <t>188,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>131,82%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57,79%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38,89%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 13,91</t>
+          <t>0,16; 8,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 18,39</t>
+          <t>0,41; 10,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 15,52</t>
+          <t>0,79; 12,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 10,7</t>
+          <t>-3,61; 9,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 457,35</t>
+          <t>-3,81; 8,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,38; 809,47</t>
+          <t>-53,22; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 219,24</t>
+          <t>-5,59; 1234,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,45; 132,44</t>
+          <t>-10,7; 546,51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-51,91; 341,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-45,85; 287,87</t>
         </is>
       </c>
     </row>
@@ -825,37 +881,47 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,49</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,5</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,71</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-59,38%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>154,22%</t>
+          <t>-63,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>81,69%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>136,77%</t>
         </is>
       </c>
     </row>
@@ -873,35 +939,45 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 7,44</t>
+          <t>-19,85; 5,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 27,16</t>
+          <t>4,65; 26,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 19,05</t>
+          <t>-14,2; 22,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-4,82; 22,54</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-54,73; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,03</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,57%</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>138,03%</t>
+          <t>74,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>164,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>153,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-5,11%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-5,36%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 7,57</t>
+          <t>-0,66; 3,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 11,86</t>
+          <t>1,72; 7,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 14,96</t>
+          <t>2,71; 10,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 17,54</t>
+          <t>-4,57; 3,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 205,23</t>
+          <t>-15,76; 6,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,88; 336,9</t>
+          <t>-40,45; 435,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,74; 204,74</t>
+          <t>31,76; 511,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 130,8</t>
+          <t>39,22; 391,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-43,6; 62,24</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-75,78; 155,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P26_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P26_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,231 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,01</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-4,27</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-19,04%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>440,62%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>116,48%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-49,29%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-32,32%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.278983182574543</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13.15343332822752</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.728378376603367</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-13.10617201325889</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-9.037675029722433</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1516437805787281</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>4.73294742457392</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.713944250046897</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.5818129609895193</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.3786036910869219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,58; 2,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 10,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 10,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 0,13</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-31,73; 7,52</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-99,85; 327,18</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>25,37; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-10,81; 409,97</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-80,04; 5,95</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-87,55; 298,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-11.91424920199266</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>5.930207071654965</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.452611409053961</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-23.91011110590195</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-45.62700988161039</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.8393595033611635</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.4530497265310838</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3341203514063898</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.7916232053769477</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.8880367533573871</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.276122218340621</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.00706350567423</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.15263000626003</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-2.224193961941102</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>12.55227678086265</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.373675090350766</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>3.091560218850807</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.1086914651210219</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.694248967882828</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,14</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>269,07%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>188,77%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>131,82%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>57,79%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>38,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 8,2</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 10,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 12,61</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 9,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 8,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-53,22; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-5,59; 1234,11</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-10,7; 546,51</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-51,91; 341,99</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-45,85; 287,87</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>15.13843919812093</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.27402506469928</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.83070958915989</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.661930749741098</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.287264816200742</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>3.580346399205193</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.430011182420597</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.352878784041765</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.4067049597637904</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1868544172181178</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-63,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>81,69%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>136,77%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.523814557766451</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.866061644264569</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.198159061340331</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.968535286049066</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-9.281488449243984</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2724650870398728</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.09829382219584359</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.07597787838436273</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.5539777507640995</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5369520441769607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-19,85; 5,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,65; 26,17</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 22,11</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 22,54</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>29.27043301577419</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>23.35234499110854</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>24.88066877058813</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>19.62035258659134</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.91154224293347</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>12.00670682782324</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>5.629682230157909</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.131207434359771</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.146897776502948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +875,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,33</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>74,03%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>164,87%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>153,71%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-5,11%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-5,36%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-17.43982690594984</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>18.64340454654401</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.205234569068043</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>10.23623243043343</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.7224341266090395</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2469727433882122</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.162330403064621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 3,4</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 7,59</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 10,23</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 3,67</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-15,76; 6,01</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-40,45; 435,03</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>31,76; 511,99</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>39,22; 391,75</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-43,6; 62,24</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-75,78; 155,87</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>-49.65541590610534</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>6.964327018266216</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-29.71717329865761</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-13.46122203631893</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="n">
+        <v>-0.8036763823696366</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>6.19122735419533</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>38.76666219039387</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>32.99821294609528</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>35.64789867183644</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.044341752294128</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>10.02249023662312</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.73720326950639</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.337089549011174</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.503477852698705</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.8654021390907545</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.823313109511114</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.16452882954756</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1799529216780625</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1413312011253252</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.808971758356242</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.068421059801213</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.866545719553035</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.94405669791174</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-29.04664544658043</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2947686648574261</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.4238564222858195</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2516962917244305</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.521937747692173</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.7377667502234199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.83542029335663</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.72327319990678</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>18.4666682768047</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.093452592233141</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>8.678317768383749</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.60600704115453</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>5.118993291266596</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.05344913724397</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3960020662588973</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.054619906382653</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1087,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
